--- a/stat/day05_01.xlsx
+++ b/stat/day05_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruk\Desktop\競プロ\Marathon\ahc014\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF89BE69-BA12-4CD9-9D90-AB6752852618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C39D48-A192-40B7-9C3F-8091CF44DAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1598" yWindow="975" windowWidth="7500" windowHeight="9870" xr2:uid="{529EF0B3-6FCE-403C-A6FB-836319A3C755}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{529EF0B3-6FCE-403C-A6FB-836319A3C755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4571,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5E1938-0B27-4EAB-9B47-8EDE2EEE8F95}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>B2-C2</f>
+        <f t="shared" ref="E2:E33" si="0">B2-C2</f>
         <v>39471</v>
       </c>
       <c r="G2" t="s">
@@ -4639,7 +4639,7 @@
         <v>505509</v>
       </c>
       <c r="K2">
-        <f>H2-I2</f>
+        <f t="shared" ref="K2:K33" si="1">H2-I2</f>
         <v>39471</v>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>-65899</v>
       </c>
       <c r="G3" t="s">
@@ -4673,7 +4673,7 @@
         <v>660505</v>
       </c>
       <c r="K3">
-        <f>H3-I3</f>
+        <f t="shared" si="1"/>
         <v>-65899</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>-12544</v>
       </c>
       <c r="G4" t="s">
@@ -4707,7 +4707,7 @@
         <v>692363</v>
       </c>
       <c r="K4">
-        <f>H4-I4</f>
+        <f t="shared" si="1"/>
         <v>-12544</v>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>-72599</v>
       </c>
       <c r="G5" t="s">
@@ -4741,7 +4741,7 @@
         <v>696568</v>
       </c>
       <c r="K5">
-        <f>H5-I5</f>
+        <f t="shared" si="1"/>
         <v>-72599</v>
       </c>
     </row>
@@ -4759,7 +4759,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>-19683</v>
       </c>
       <c r="G6" t="s">
@@ -4775,7 +4775,7 @@
         <v>735193</v>
       </c>
       <c r="K6">
-        <f>H6-I6</f>
+        <f t="shared" si="1"/>
         <v>-19683</v>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-48502</v>
       </c>
       <c r="G7" t="s">
@@ -4809,7 +4809,7 @@
         <v>498118</v>
       </c>
       <c r="K7">
-        <f>H7-I7</f>
+        <f t="shared" si="1"/>
         <v>-48502</v>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>-44444</v>
       </c>
       <c r="G8" t="s">
@@ -4843,7 +4843,7 @@
         <v>666883</v>
       </c>
       <c r="K8">
-        <f>H8-I8</f>
+        <f t="shared" si="1"/>
         <v>-44444</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>13481</v>
       </c>
       <c r="G9" t="s">
@@ -4877,7 +4877,7 @@
         <v>641152</v>
       </c>
       <c r="K9">
-        <f>H9-I9</f>
+        <f t="shared" si="1"/>
         <v>13481</v>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>-83602</v>
       </c>
       <c r="G10" t="s">
@@ -4911,7 +4911,7 @@
         <v>746566</v>
       </c>
       <c r="K10">
-        <f>H10-I10</f>
+        <f t="shared" si="1"/>
         <v>-83602</v>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>14374</v>
       </c>
       <c r="G11" t="s">
@@ -4945,7 +4945,7 @@
         <v>693333</v>
       </c>
       <c r="K11">
-        <f>H11-I11</f>
+        <f t="shared" si="1"/>
         <v>14374</v>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>52454</v>
       </c>
       <c r="G12" t="s">
@@ -4979,7 +4979,7 @@
         <v>671162</v>
       </c>
       <c r="K12">
-        <f>H12-I12</f>
+        <f t="shared" si="1"/>
         <v>52454</v>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>70346</v>
       </c>
       <c r="G13" t="s">
@@ -5013,7 +5013,7 @@
         <v>660179</v>
       </c>
       <c r="K13">
-        <f>H13-I13</f>
+        <f t="shared" si="1"/>
         <v>70346</v>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>82468</v>
       </c>
       <c r="G14" t="s">
@@ -5047,7 +5047,7 @@
         <v>558524</v>
       </c>
       <c r="K14">
-        <f>H14-I14</f>
+        <f t="shared" si="1"/>
         <v>-76761</v>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
         <v>16</v>
       </c>
       <c r="E15">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>16369</v>
       </c>
       <c r="G15" t="s">
@@ -5081,7 +5081,7 @@
         <v>637761</v>
       </c>
       <c r="K15">
-        <f>H15-I15</f>
+        <f t="shared" si="1"/>
         <v>42061</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>-129551</v>
       </c>
       <c r="G16" t="s">
@@ -5115,7 +5115,7 @@
         <v>678610</v>
       </c>
       <c r="K16">
-        <f>H16-I16</f>
+        <f t="shared" si="1"/>
         <v>82468</v>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>3362</v>
       </c>
       <c r="G17" t="s">
@@ -5149,7 +5149,7 @@
         <v>752920</v>
       </c>
       <c r="K17">
-        <f>H17-I17</f>
+        <f t="shared" si="1"/>
         <v>16369</v>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>-91827</v>
       </c>
       <c r="G18" t="s">
@@ -5183,7 +5183,7 @@
         <v>681006</v>
       </c>
       <c r="K18">
-        <f>H18-I18</f>
+        <f t="shared" si="1"/>
         <v>-129551</v>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>32781</v>
       </c>
       <c r="G19" t="s">
@@ -5217,7 +5217,7 @@
         <v>697660</v>
       </c>
       <c r="K19">
-        <f>H19-I19</f>
+        <f t="shared" si="1"/>
         <v>3362</v>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
         <v>21</v>
       </c>
       <c r="E20">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>-15409</v>
       </c>
       <c r="G20" t="s">
@@ -5251,7 +5251,7 @@
         <v>637157</v>
       </c>
       <c r="K20">
-        <f>H20-I20</f>
+        <f t="shared" si="1"/>
         <v>-91827</v>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
         <v>22</v>
       </c>
       <c r="E21">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>-76761</v>
       </c>
       <c r="G21" t="s">
@@ -5285,7 +5285,7 @@
         <v>739223</v>
       </c>
       <c r="K21">
-        <f>H21-I21</f>
+        <f t="shared" si="1"/>
         <v>32781</v>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>42061</v>
       </c>
       <c r="G22" t="s">
@@ -5319,7 +5319,7 @@
         <v>631111</v>
       </c>
       <c r="K22">
-        <f>H22-I22</f>
+        <f t="shared" si="1"/>
         <v>-15409</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         <v>24</v>
       </c>
       <c r="E23">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>-81207</v>
       </c>
       <c r="G23" t="s">
@@ -5353,7 +5353,7 @@
         <v>495822</v>
       </c>
       <c r="K23">
-        <f>H23-I23</f>
+        <f t="shared" si="1"/>
         <v>-98093</v>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>47689</v>
       </c>
       <c r="G24" t="s">
@@ -5387,7 +5387,7 @@
         <v>538987</v>
       </c>
       <c r="K24">
-        <f>H24-I24</f>
+        <f t="shared" si="1"/>
         <v>-16095</v>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
         <v>26</v>
       </c>
       <c r="E25">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>-35034</v>
       </c>
       <c r="G25" t="s">
@@ -5421,7 +5421,7 @@
         <v>751836</v>
       </c>
       <c r="K25">
-        <f>H25-I25</f>
+        <f t="shared" si="1"/>
         <v>-66671</v>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         <v>27</v>
       </c>
       <c r="E26">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>-33648</v>
       </c>
       <c r="G26" t="s">
@@ -5455,7 +5455,7 @@
         <v>591523</v>
       </c>
       <c r="K26">
-        <f>H26-I26</f>
+        <f t="shared" si="1"/>
         <v>101565</v>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>-51741</v>
       </c>
       <c r="G27" t="s">
@@ -5489,7 +5489,7 @@
         <v>610792</v>
       </c>
       <c r="K27">
-        <f>H27-I27</f>
+        <f t="shared" si="1"/>
         <v>55287</v>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>-29857</v>
       </c>
       <c r="G28" t="s">
@@ -5523,7 +5523,7 @@
         <v>633677</v>
       </c>
       <c r="K28">
-        <f>H28-I28</f>
+        <f t="shared" si="1"/>
         <v>87189</v>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>-98093</v>
       </c>
       <c r="G29" t="s">
@@ -5557,7 +5557,7 @@
         <v>665504</v>
       </c>
       <c r="K29">
-        <f>H29-I29</f>
+        <f t="shared" si="1"/>
         <v>-81207</v>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>-16095</v>
       </c>
       <c r="G30" t="s">
@@ -5591,7 +5591,7 @@
         <v>683506</v>
       </c>
       <c r="K30">
-        <f>H30-I30</f>
+        <f t="shared" si="1"/>
         <v>47689</v>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>-66671</v>
       </c>
       <c r="G31" t="s">
@@ -5625,7 +5625,7 @@
         <v>664745</v>
       </c>
       <c r="K31">
-        <f>H31-I31</f>
+        <f t="shared" si="1"/>
         <v>-35034</v>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
         <v>33</v>
       </c>
       <c r="E32">
-        <f>B32-C32</f>
+        <f t="shared" si="0"/>
         <v>101565</v>
       </c>
       <c r="G32" t="s">
@@ -5659,7 +5659,7 @@
         <v>776407</v>
       </c>
       <c r="K32">
-        <f>H32-I32</f>
+        <f t="shared" si="1"/>
         <v>-33648</v>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
         <v>34</v>
       </c>
       <c r="E33">
-        <f>B33-C33</f>
+        <f t="shared" si="0"/>
         <v>55287</v>
       </c>
       <c r="G33" t="s">
@@ -5693,7 +5693,7 @@
         <v>718672</v>
       </c>
       <c r="K33">
-        <f>H33-I33</f>
+        <f t="shared" si="1"/>
         <v>-51741</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
         <v>35</v>
       </c>
       <c r="E34">
-        <f>B34-C34</f>
+        <f t="shared" ref="E34:E65" si="2">B34-C34</f>
         <v>87189</v>
       </c>
       <c r="G34" t="s">
@@ -5727,7 +5727,7 @@
         <v>727838</v>
       </c>
       <c r="K34">
-        <f>H34-I34</f>
+        <f t="shared" ref="K34:K65" si="3">H34-I34</f>
         <v>-29857</v>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
         <v>36</v>
       </c>
       <c r="E35">
-        <f>B35-C35</f>
+        <f t="shared" si="2"/>
         <v>-16203</v>
       </c>
       <c r="G35" t="s">
@@ -5761,7 +5761,7 @@
         <v>482788</v>
       </c>
       <c r="K35">
-        <f>H35-I35</f>
+        <f t="shared" si="3"/>
         <v>2255</v>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
         <v>37</v>
       </c>
       <c r="E36">
-        <f>B36-C36</f>
+        <f t="shared" si="2"/>
         <v>-89906</v>
       </c>
       <c r="G36" t="s">
@@ -5795,7 +5795,7 @@
         <v>545618</v>
       </c>
       <c r="K36">
-        <f>H36-I36</f>
+        <f t="shared" si="3"/>
         <v>41322</v>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
         <v>38</v>
       </c>
       <c r="E37">
-        <f>B37-C37</f>
+        <f t="shared" si="2"/>
         <v>87732</v>
       </c>
       <c r="G37" t="s">
@@ -5829,7 +5829,7 @@
         <v>651013</v>
       </c>
       <c r="K37">
-        <f>H37-I37</f>
+        <f t="shared" si="3"/>
         <v>-25051</v>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <f>B38-C38</f>
+        <f t="shared" si="2"/>
         <v>-105585</v>
       </c>
       <c r="G38" t="s">
@@ -5863,7 +5863,7 @@
         <v>694611</v>
       </c>
       <c r="K38">
-        <f>H38-I38</f>
+        <f t="shared" si="3"/>
         <v>68779</v>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
         <v>40</v>
       </c>
       <c r="E39">
-        <f>B39-C39</f>
+        <f t="shared" si="2"/>
         <v>101143</v>
       </c>
       <c r="G39" t="s">
@@ -5897,7 +5897,7 @@
         <v>744883</v>
       </c>
       <c r="K39">
-        <f>H39-I39</f>
+        <f t="shared" si="3"/>
         <v>16758</v>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
         <v>41</v>
       </c>
       <c r="E40">
-        <f>B40-C40</f>
+        <f t="shared" si="2"/>
         <v>-48334</v>
       </c>
       <c r="G40" t="s">
@@ -5931,7 +5931,7 @@
         <v>677395</v>
       </c>
       <c r="K40">
-        <f>H40-I40</f>
+        <f t="shared" si="3"/>
         <v>99477</v>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         <v>42</v>
       </c>
       <c r="E41">
-        <f>B41-C41</f>
+        <f t="shared" si="2"/>
         <v>2255</v>
       </c>
       <c r="G41" t="s">
@@ -5965,7 +5965,7 @@
         <v>598536</v>
       </c>
       <c r="K41">
-        <f>H41-I41</f>
+        <f t="shared" si="3"/>
         <v>54849</v>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
         <v>43</v>
       </c>
       <c r="E42">
-        <f>B42-C42</f>
+        <f t="shared" si="2"/>
         <v>41322</v>
       </c>
       <c r="G42" t="s">
@@ -5999,7 +5999,7 @@
         <v>647812</v>
       </c>
       <c r="K42">
-        <f>H42-I42</f>
+        <f t="shared" si="3"/>
         <v>23793</v>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
         <v>44</v>
       </c>
       <c r="E43">
-        <f>B43-C43</f>
+        <f t="shared" si="2"/>
         <v>-25051</v>
       </c>
       <c r="G43" t="s">
@@ -6033,7 +6033,7 @@
         <v>672598</v>
       </c>
       <c r="K43">
-        <f>H43-I43</f>
+        <f t="shared" si="3"/>
         <v>-16203</v>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
         <v>45</v>
       </c>
       <c r="E44">
-        <f>B44-C44</f>
+        <f t="shared" si="2"/>
         <v>68779</v>
       </c>
       <c r="G44" t="s">
@@ -6067,7 +6067,7 @@
         <v>708780</v>
       </c>
       <c r="K44">
-        <f>H44-I44</f>
+        <f t="shared" si="3"/>
         <v>-89906</v>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
         <v>46</v>
       </c>
       <c r="E45">
-        <f>B45-C45</f>
+        <f t="shared" si="2"/>
         <v>16758</v>
       </c>
       <c r="G45" t="s">
@@ -6101,7 +6101,7 @@
         <v>642018</v>
       </c>
       <c r="K45">
-        <f>H45-I45</f>
+        <f t="shared" si="3"/>
         <v>87732</v>
       </c>
     </row>
@@ -6119,7 +6119,7 @@
         <v>47</v>
       </c>
       <c r="E46">
-        <f>B46-C46</f>
+        <f t="shared" si="2"/>
         <v>99477</v>
       </c>
       <c r="G46" t="s">
@@ -6135,7 +6135,7 @@
         <v>738076</v>
       </c>
       <c r="K46">
-        <f>H46-I46</f>
+        <f t="shared" si="3"/>
         <v>-105585</v>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
         <v>48</v>
       </c>
       <c r="E47">
-        <f>B47-C47</f>
+        <f t="shared" si="2"/>
         <v>54849</v>
       </c>
       <c r="G47" t="s">
@@ -6169,7 +6169,7 @@
         <v>678366</v>
       </c>
       <c r="K47">
-        <f>H47-I47</f>
+        <f t="shared" si="3"/>
         <v>101143</v>
       </c>
     </row>
@@ -6187,7 +6187,7 @@
         <v>49</v>
       </c>
       <c r="E48">
-        <f>B48-C48</f>
+        <f t="shared" si="2"/>
         <v>23793</v>
       </c>
       <c r="G48" t="s">
@@ -6203,7 +6203,7 @@
         <v>683462</v>
       </c>
       <c r="K48">
-        <f>H48-I48</f>
+        <f t="shared" si="3"/>
         <v>-48334</v>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
         <v>50</v>
       </c>
       <c r="E49">
-        <f>B49-C49</f>
+        <f t="shared" si="2"/>
         <v>-11557</v>
       </c>
       <c r="G49" t="s">
@@ -6237,7 +6237,7 @@
         <v>446887</v>
       </c>
       <c r="K49">
-        <f>H49-I49</f>
+        <f t="shared" si="3"/>
         <v>10053</v>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         <v>51</v>
       </c>
       <c r="E50">
-        <f>B50-C50</f>
+        <f t="shared" si="2"/>
         <v>-68770</v>
       </c>
       <c r="G50" t="s">
@@ -6271,7 +6271,7 @@
         <v>682221</v>
       </c>
       <c r="K50">
-        <f>H50-I50</f>
+        <f t="shared" si="3"/>
         <v>17237</v>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
         <v>52</v>
       </c>
       <c r="E51">
-        <f>B51-C51</f>
+        <f t="shared" si="2"/>
         <v>65504</v>
       </c>
       <c r="G51" t="s">
@@ -6305,7 +6305,7 @@
         <v>623036</v>
       </c>
       <c r="K51">
-        <f>H51-I51</f>
+        <f t="shared" si="3"/>
         <v>36058</v>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
         <v>53</v>
       </c>
       <c r="E52">
-        <f>B52-C52</f>
+        <f t="shared" si="2"/>
         <v>-5997</v>
       </c>
       <c r="G52" t="s">
@@ -6339,7 +6339,7 @@
         <v>574855</v>
       </c>
       <c r="K52">
-        <f>H52-I52</f>
+        <f t="shared" si="3"/>
         <v>-34817</v>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="E53">
-        <f>B53-C53</f>
+        <f t="shared" si="2"/>
         <v>-20494</v>
       </c>
       <c r="G53" t="s">
@@ -6373,7 +6373,7 @@
         <v>530736</v>
       </c>
       <c r="K53">
-        <f>H53-I53</f>
+        <f t="shared" si="3"/>
         <v>-79963</v>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
         <v>55</v>
       </c>
       <c r="E54">
-        <f>B54-C54</f>
+        <f t="shared" si="2"/>
         <v>10053</v>
       </c>
       <c r="G54" t="s">
@@ -6407,7 +6407,7 @@
         <v>669673</v>
       </c>
       <c r="K54">
-        <f>H54-I54</f>
+        <f t="shared" si="3"/>
         <v>7792</v>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
         <v>56</v>
       </c>
       <c r="E55">
-        <f>B55-C55</f>
+        <f t="shared" si="2"/>
         <v>17237</v>
       </c>
       <c r="G55" t="s">
@@ -6441,7 +6441,7 @@
         <v>662815</v>
       </c>
       <c r="K55">
-        <f>H55-I55</f>
+        <f t="shared" si="3"/>
         <v>15602</v>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
         <v>57</v>
       </c>
       <c r="E56">
-        <f>B56-C56</f>
+        <f t="shared" si="2"/>
         <v>36058</v>
       </c>
       <c r="G56" t="s">
@@ -6475,7 +6475,7 @@
         <v>608265</v>
       </c>
       <c r="K56">
-        <f>H56-I56</f>
+        <f t="shared" si="3"/>
         <v>-28773</v>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
         <v>58</v>
       </c>
       <c r="E57">
-        <f>B57-C57</f>
+        <f t="shared" si="2"/>
         <v>-34817</v>
       </c>
       <c r="G57" t="s">
@@ -6509,7 +6509,7 @@
         <v>670818</v>
       </c>
       <c r="K57">
-        <f>H57-I57</f>
+        <f t="shared" si="3"/>
         <v>53972</v>
       </c>
     </row>
@@ -6527,7 +6527,7 @@
         <v>59</v>
       </c>
       <c r="E58">
-        <f>B58-C58</f>
+        <f t="shared" si="2"/>
         <v>-79963</v>
       </c>
       <c r="G58" t="s">
@@ -6543,7 +6543,7 @@
         <v>735961</v>
       </c>
       <c r="K58">
-        <f>H58-I58</f>
+        <f t="shared" si="3"/>
         <v>52292</v>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
         <v>60</v>
       </c>
       <c r="E59">
-        <f>B59-C59</f>
+        <f t="shared" si="2"/>
         <v>7792</v>
       </c>
       <c r="G59" t="s">
@@ -6577,7 +6577,7 @@
         <v>659014</v>
       </c>
       <c r="K59">
-        <f>H59-I59</f>
+        <f t="shared" si="3"/>
         <v>130640</v>
       </c>
     </row>
@@ -6595,7 +6595,7 @@
         <v>61</v>
       </c>
       <c r="E60">
-        <f>B60-C60</f>
+        <f t="shared" si="2"/>
         <v>15602</v>
       </c>
       <c r="G60" t="s">
@@ -6611,7 +6611,7 @@
         <v>678286</v>
       </c>
       <c r="K60">
-        <f>H60-I60</f>
+        <f t="shared" si="3"/>
         <v>20415</v>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
         <v>62</v>
       </c>
       <c r="E61">
-        <f>B61-C61</f>
+        <f t="shared" si="2"/>
         <v>-28773</v>
       </c>
       <c r="G61" t="s">
@@ -6645,7 +6645,7 @@
         <v>634392</v>
       </c>
       <c r="K61">
-        <f>H61-I61</f>
+        <f t="shared" si="3"/>
         <v>-11557</v>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
         <v>63</v>
       </c>
       <c r="E62">
-        <f>B62-C62</f>
+        <f t="shared" si="2"/>
         <v>53972</v>
       </c>
       <c r="G62" t="s">
@@ -6679,7 +6679,7 @@
         <v>670984</v>
       </c>
       <c r="K62">
-        <f>H62-I62</f>
+        <f t="shared" si="3"/>
         <v>-68770</v>
       </c>
     </row>
@@ -6697,7 +6697,7 @@
         <v>64</v>
       </c>
       <c r="E63">
-        <f>B63-C63</f>
+        <f t="shared" si="2"/>
         <v>52292</v>
       </c>
       <c r="G63" t="s">
@@ -6713,7 +6713,7 @@
         <v>697428</v>
       </c>
       <c r="K63">
-        <f>H63-I63</f>
+        <f t="shared" si="3"/>
         <v>65504</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
         <v>65</v>
       </c>
       <c r="E64">
-        <f>B64-C64</f>
+        <f t="shared" si="2"/>
         <v>130640</v>
       </c>
       <c r="G64" t="s">
@@ -6747,7 +6747,7 @@
         <v>656739</v>
       </c>
       <c r="K64">
-        <f>H64-I64</f>
+        <f t="shared" si="3"/>
         <v>-5997</v>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
         <v>66</v>
       </c>
       <c r="E65">
-        <f>B65-C65</f>
+        <f t="shared" si="2"/>
         <v>20415</v>
       </c>
       <c r="G65" t="s">
@@ -6781,7 +6781,7 @@
         <v>687963</v>
       </c>
       <c r="K65">
-        <f>H65-I65</f>
+        <f t="shared" si="3"/>
         <v>-20494</v>
       </c>
     </row>
@@ -6799,7 +6799,7 @@
         <v>67</v>
       </c>
       <c r="E66">
-        <f>B66-C66</f>
+        <f t="shared" ref="E66:E97" si="4">B66-C66</f>
         <v>-18650</v>
       </c>
       <c r="G66" t="s">
@@ -6815,7 +6815,7 @@
         <v>511899</v>
       </c>
       <c r="K66">
-        <f>H66-I66</f>
+        <f t="shared" ref="K66:K97" si="5">H66-I66</f>
         <v>-62895</v>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
         <v>68</v>
       </c>
       <c r="E67">
-        <f>B67-C67</f>
+        <f t="shared" si="4"/>
         <v>23214</v>
       </c>
       <c r="G67" t="s">
@@ -6849,7 +6849,7 @@
         <v>497882</v>
       </c>
       <c r="K67">
-        <f>H67-I67</f>
+        <f t="shared" si="5"/>
         <v>3116</v>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
         <v>69</v>
       </c>
       <c r="E68">
-        <f>B68-C68</f>
+        <f t="shared" si="4"/>
         <v>-46732</v>
       </c>
       <c r="G68" t="s">
@@ -6883,7 +6883,7 @@
         <v>662547</v>
       </c>
       <c r="K68">
-        <f>H68-I68</f>
+        <f t="shared" si="5"/>
         <v>-32127</v>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
         <v>70</v>
       </c>
       <c r="E69">
-        <f>B69-C69</f>
+        <f t="shared" si="4"/>
         <v>-22481</v>
       </c>
       <c r="G69" t="s">
@@ -6917,7 +6917,7 @@
         <v>656423</v>
       </c>
       <c r="K69">
-        <f>H69-I69</f>
+        <f t="shared" si="5"/>
         <v>60770</v>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="E70">
-        <f>B70-C70</f>
+        <f t="shared" si="4"/>
         <v>41168</v>
       </c>
       <c r="G70" t="s">
@@ -6951,7 +6951,7 @@
         <v>620198</v>
       </c>
       <c r="K70">
-        <f>H70-I70</f>
+        <f t="shared" si="5"/>
         <v>41134</v>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
         <v>72</v>
       </c>
       <c r="E71">
-        <f>B71-C71</f>
+        <f t="shared" si="4"/>
         <v>-62895</v>
       </c>
       <c r="G71" t="s">
@@ -6985,7 +6985,7 @@
         <v>626704</v>
       </c>
       <c r="K71">
-        <f>H71-I71</f>
+        <f t="shared" si="5"/>
         <v>26062</v>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
         <v>73</v>
       </c>
       <c r="E72">
-        <f>B72-C72</f>
+        <f t="shared" si="4"/>
         <v>3116</v>
       </c>
       <c r="G72" t="s">
@@ -7019,7 +7019,7 @@
         <v>644080</v>
       </c>
       <c r="K72">
-        <f>H72-I72</f>
+        <f t="shared" si="5"/>
         <v>30507</v>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
         <v>74</v>
       </c>
       <c r="E73">
-        <f>B73-C73</f>
+        <f t="shared" si="4"/>
         <v>-32127</v>
       </c>
       <c r="G73" t="s">
@@ -7053,7 +7053,7 @@
         <v>685671</v>
       </c>
       <c r="K73">
-        <f>H73-I73</f>
+        <f t="shared" si="5"/>
         <v>55231</v>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
         <v>75</v>
       </c>
       <c r="E74">
-        <f>B74-C74</f>
+        <f t="shared" si="4"/>
         <v>60770</v>
       </c>
       <c r="G74" t="s">
@@ -7087,7 +7087,7 @@
         <v>659977</v>
       </c>
       <c r="K74">
-        <f>H74-I74</f>
+        <f t="shared" si="5"/>
         <v>52994</v>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
         <v>76</v>
       </c>
       <c r="E75">
-        <f>B75-C75</f>
+        <f t="shared" si="4"/>
         <v>41134</v>
       </c>
       <c r="G75" t="s">
@@ -7121,7 +7121,7 @@
         <v>653834</v>
       </c>
       <c r="K75">
-        <f>H75-I75</f>
+        <f t="shared" si="5"/>
         <v>13973</v>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
         <v>77</v>
       </c>
       <c r="E76">
-        <f>B76-C76</f>
+        <f t="shared" si="4"/>
         <v>26062</v>
       </c>
       <c r="G76" t="s">
@@ -7155,7 +7155,7 @@
         <v>673114</v>
       </c>
       <c r="K76">
-        <f>H76-I76</f>
+        <f t="shared" si="5"/>
         <v>30099</v>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
         <v>78</v>
       </c>
       <c r="E77">
-        <f>B77-C77</f>
+        <f t="shared" si="4"/>
         <v>30507</v>
       </c>
       <c r="G77" t="s">
@@ -7189,7 +7189,7 @@
         <v>669042</v>
       </c>
       <c r="K77">
-        <f>H77-I77</f>
+        <f t="shared" si="5"/>
         <v>43794</v>
       </c>
     </row>
@@ -7207,7 +7207,7 @@
         <v>79</v>
       </c>
       <c r="E78">
-        <f>B78-C78</f>
+        <f t="shared" si="4"/>
         <v>55231</v>
       </c>
       <c r="G78" t="s">
@@ -7223,7 +7223,7 @@
         <v>673561</v>
       </c>
       <c r="K78">
-        <f>H78-I78</f>
+        <f t="shared" si="5"/>
         <v>63111</v>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
         <v>80</v>
       </c>
       <c r="E79">
-        <f>B79-C79</f>
+        <f t="shared" si="4"/>
         <v>52994</v>
       </c>
       <c r="G79" t="s">
@@ -7257,7 +7257,7 @@
         <v>712014</v>
       </c>
       <c r="K79">
-        <f>H79-I79</f>
+        <f t="shared" si="5"/>
         <v>42309</v>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
         <v>81</v>
       </c>
       <c r="E80">
-        <f>B80-C80</f>
+        <f t="shared" si="4"/>
         <v>13973</v>
       </c>
       <c r="G80" t="s">
@@ -7291,7 +7291,7 @@
         <v>662533</v>
       </c>
       <c r="K80">
-        <f>H80-I80</f>
+        <f t="shared" si="5"/>
         <v>66664</v>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
         <v>82</v>
       </c>
       <c r="E81">
-        <f>B81-C81</f>
+        <f t="shared" si="4"/>
         <v>30099</v>
       </c>
       <c r="G81" t="s">
@@ -7325,7 +7325,7 @@
         <v>668099</v>
       </c>
       <c r="K81">
-        <f>H81-I81</f>
+        <f t="shared" si="5"/>
         <v>-18650</v>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
         <v>83</v>
       </c>
       <c r="E82">
-        <f>B82-C82</f>
+        <f t="shared" si="4"/>
         <v>43794</v>
       </c>
       <c r="G82" t="s">
@@ -7359,7 +7359,7 @@
         <v>630660</v>
       </c>
       <c r="K82">
-        <f>H82-I82</f>
+        <f t="shared" si="5"/>
         <v>23214</v>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
         <v>84</v>
       </c>
       <c r="E83">
-        <f>B83-C83</f>
+        <f t="shared" si="4"/>
         <v>63111</v>
       </c>
       <c r="G83" t="s">
@@ -7393,7 +7393,7 @@
         <v>681161</v>
       </c>
       <c r="K83">
-        <f>H83-I83</f>
+        <f t="shared" si="5"/>
         <v>-46732</v>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
         <v>85</v>
       </c>
       <c r="E84">
-        <f>B84-C84</f>
+        <f t="shared" si="4"/>
         <v>42309</v>
       </c>
       <c r="G84" t="s">
@@ -7427,7 +7427,7 @@
         <v>650263</v>
       </c>
       <c r="K84">
-        <f>H84-I84</f>
+        <f t="shared" si="5"/>
         <v>-22481</v>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
         <v>86</v>
       </c>
       <c r="E85">
-        <f>B85-C85</f>
+        <f t="shared" si="4"/>
         <v>66664</v>
       </c>
       <c r="G85" t="s">
@@ -7461,7 +7461,7 @@
         <v>696876</v>
       </c>
       <c r="K85">
-        <f>H85-I85</f>
+        <f t="shared" si="5"/>
         <v>41168</v>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
         <v>87</v>
       </c>
       <c r="E86">
-        <f>B86-C86</f>
+        <f t="shared" si="4"/>
         <v>31798</v>
       </c>
       <c r="G86" t="s">
@@ -7495,7 +7495,7 @@
         <v>593103</v>
       </c>
       <c r="K86">
-        <f>H86-I86</f>
+        <f t="shared" si="5"/>
         <v>-13817</v>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
         <v>88</v>
       </c>
       <c r="E87">
-        <f>B87-C87</f>
+        <f t="shared" si="4"/>
         <v>-20654</v>
       </c>
       <c r="G87" t="s">
@@ -7529,7 +7529,7 @@
         <v>593130</v>
       </c>
       <c r="K87">
-        <f>H87-I87</f>
+        <f t="shared" si="5"/>
         <v>35132</v>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
         <v>89</v>
       </c>
       <c r="E88">
-        <f>B88-C88</f>
+        <f t="shared" si="4"/>
         <v>-35839</v>
       </c>
       <c r="G88" t="s">
@@ -7563,7 +7563,7 @@
         <v>605546</v>
       </c>
       <c r="K88">
-        <f>H88-I88</f>
+        <f t="shared" si="5"/>
         <v>-37652</v>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
         <v>90</v>
       </c>
       <c r="E89">
-        <f>B89-C89</f>
+        <f t="shared" si="4"/>
         <v>-33476</v>
       </c>
       <c r="G89" t="s">
@@ -7597,7 +7597,7 @@
         <v>576766</v>
       </c>
       <c r="K89">
-        <f>H89-I89</f>
+        <f t="shared" si="5"/>
         <v>-9386</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
         <v>91</v>
       </c>
       <c r="E90">
-        <f>B90-C90</f>
+        <f t="shared" si="4"/>
         <v>24844</v>
       </c>
       <c r="G90" t="s">
@@ -7631,7 +7631,7 @@
         <v>597280</v>
       </c>
       <c r="K90">
-        <f>H90-I90</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
         <v>92</v>
       </c>
       <c r="E91">
-        <f>B91-C91</f>
+        <f t="shared" si="4"/>
         <v>-13817</v>
       </c>
       <c r="G91" t="s">
@@ -7665,7 +7665,7 @@
         <v>624753</v>
       </c>
       <c r="K91">
-        <f>H91-I91</f>
+        <f t="shared" si="5"/>
         <v>26034</v>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
         <v>93</v>
       </c>
       <c r="E92">
-        <f>B92-C92</f>
+        <f t="shared" si="4"/>
         <v>35132</v>
       </c>
       <c r="G92" t="s">
@@ -7699,7 +7699,7 @@
         <v>643037</v>
       </c>
       <c r="K92">
-        <f>H92-I92</f>
+        <f t="shared" si="5"/>
         <v>-22314</v>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
         <v>94</v>
       </c>
       <c r="E93">
-        <f>B93-C93</f>
+        <f t="shared" si="4"/>
         <v>-37652</v>
       </c>
       <c r="G93" t="s">
@@ -7733,7 +7733,7 @@
         <v>649748</v>
       </c>
       <c r="K93">
-        <f>H93-I93</f>
+        <f t="shared" si="5"/>
         <v>23673</v>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
         <v>95</v>
       </c>
       <c r="E94">
-        <f>B94-C94</f>
+        <f t="shared" si="4"/>
         <v>-9386</v>
       </c>
       <c r="G94" t="s">
@@ -7767,7 +7767,7 @@
         <v>606644</v>
       </c>
       <c r="K94">
-        <f>H94-I94</f>
+        <f t="shared" si="5"/>
         <v>50159</v>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
         <v>96</v>
       </c>
       <c r="E95">
-        <f>B95-C95</f>
+        <f t="shared" si="4"/>
         <v>346</v>
       </c>
       <c r="G95" t="s">
@@ -7801,7 +7801,7 @@
         <v>606810</v>
       </c>
       <c r="K95">
-        <f>H95-I95</f>
+        <f t="shared" si="5"/>
         <v>41118</v>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
         <v>97</v>
       </c>
       <c r="E96">
-        <f>B96-C96</f>
+        <f t="shared" si="4"/>
         <v>26034</v>
       </c>
       <c r="G96" t="s">
@@ -7835,7 +7835,7 @@
         <v>662325</v>
       </c>
       <c r="K96">
-        <f>H96-I96</f>
+        <f t="shared" si="5"/>
         <v>-28535</v>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
         <v>98</v>
       </c>
       <c r="E97">
-        <f>B97-C97</f>
+        <f t="shared" si="4"/>
         <v>-22314</v>
       </c>
       <c r="G97" t="s">
@@ -7869,7 +7869,7 @@
         <v>607827</v>
       </c>
       <c r="K97">
-        <f>H97-I97</f>
+        <f t="shared" si="5"/>
         <v>68454</v>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
         <v>99</v>
       </c>
       <c r="E98">
-        <f>B98-C98</f>
+        <f t="shared" ref="E98:E109" si="6">B98-C98</f>
         <v>23673</v>
       </c>
       <c r="G98" t="s">
@@ -7903,7 +7903,7 @@
         <v>621544</v>
       </c>
       <c r="K98">
-        <f>H98-I98</f>
+        <f t="shared" ref="K98:K109" si="7">H98-I98</f>
         <v>3593</v>
       </c>
     </row>
@@ -7921,7 +7921,7 @@
         <v>100</v>
       </c>
       <c r="E99">
-        <f>B99-C99</f>
+        <f t="shared" si="6"/>
         <v>50159</v>
       </c>
       <c r="G99" t="s">
@@ -7937,7 +7937,7 @@
         <v>565072</v>
       </c>
       <c r="K99">
-        <f>H99-I99</f>
+        <f t="shared" si="7"/>
         <v>81442</v>
       </c>
     </row>
@@ -7955,7 +7955,7 @@
         <v>101</v>
       </c>
       <c r="E100">
-        <f>B100-C100</f>
+        <f t="shared" si="6"/>
         <v>41118</v>
       </c>
       <c r="G100" t="s">
@@ -7971,7 +7971,7 @@
         <v>682327</v>
       </c>
       <c r="K100">
-        <f>H100-I100</f>
+        <f t="shared" si="7"/>
         <v>60199</v>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
         <v>102</v>
       </c>
       <c r="E101">
-        <f>B101-C101</f>
+        <f t="shared" si="6"/>
         <v>-28535</v>
       </c>
       <c r="G101" t="s">
@@ -8005,7 +8005,7 @@
         <v>678124</v>
       </c>
       <c r="K101">
-        <f>H101-I101</f>
+        <f t="shared" si="7"/>
         <v>49914</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>103</v>
       </c>
       <c r="E102">
-        <f>B102-C102</f>
+        <f t="shared" si="6"/>
         <v>68454</v>
       </c>
       <c r="G102" t="s">
@@ -8039,7 +8039,7 @@
         <v>749864</v>
       </c>
       <c r="K102">
-        <f>H102-I102</f>
+        <f t="shared" si="7"/>
         <v>59902</v>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
         <v>104</v>
       </c>
       <c r="E103">
-        <f>B103-C103</f>
+        <f t="shared" si="6"/>
         <v>3593</v>
       </c>
       <c r="G103" t="s">
@@ -8073,7 +8073,7 @@
         <v>653879</v>
       </c>
       <c r="K103">
-        <f>H103-I103</f>
+        <f t="shared" si="7"/>
         <v>14633</v>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
         <v>105</v>
       </c>
       <c r="E104">
-        <f>B104-C104</f>
+        <f t="shared" si="6"/>
         <v>81442</v>
       </c>
       <c r="G104" t="s">
@@ -8107,7 +8107,7 @@
         <v>657825</v>
       </c>
       <c r="K104">
-        <f>H104-I104</f>
+        <f t="shared" si="7"/>
         <v>72771</v>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
         <v>106</v>
       </c>
       <c r="E105">
-        <f>B105-C105</f>
+        <f t="shared" si="6"/>
         <v>60199</v>
       </c>
       <c r="G105" t="s">
@@ -8141,7 +8141,7 @@
         <v>597937</v>
       </c>
       <c r="K105">
-        <f>H105-I105</f>
+        <f t="shared" si="7"/>
         <v>31798</v>
       </c>
     </row>
@@ -8159,7 +8159,7 @@
         <v>107</v>
       </c>
       <c r="E106">
-        <f>B106-C106</f>
+        <f t="shared" si="6"/>
         <v>49914</v>
       </c>
       <c r="G106" t="s">
@@ -8175,7 +8175,7 @@
         <v>622445</v>
       </c>
       <c r="K106">
-        <f>H106-I106</f>
+        <f t="shared" si="7"/>
         <v>-20654</v>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
         <v>108</v>
       </c>
       <c r="E107">
-        <f>B107-C107</f>
+        <f t="shared" si="6"/>
         <v>59902</v>
       </c>
       <c r="G107" t="s">
@@ -8209,7 +8209,7 @@
         <v>612282</v>
       </c>
       <c r="K107">
-        <f>H107-I107</f>
+        <f t="shared" si="7"/>
         <v>-35839</v>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
         <v>109</v>
       </c>
       <c r="E108">
-        <f>B108-C108</f>
+        <f t="shared" si="6"/>
         <v>14633</v>
       </c>
       <c r="G108" t="s">
@@ -8243,7 +8243,7 @@
         <v>642286</v>
       </c>
       <c r="K108">
-        <f>H108-I108</f>
+        <f t="shared" si="7"/>
         <v>-33476</v>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
         <v>110</v>
       </c>
       <c r="E109">
-        <f>B109-C109</f>
+        <f t="shared" si="6"/>
         <v>72771</v>
       </c>
       <c r="G109" t="s">
@@ -8277,7 +8277,7 @@
         <v>697365</v>
       </c>
       <c r="K109">
-        <f>H109-I109</f>
+        <f t="shared" si="7"/>
         <v>24844</v>
       </c>
     </row>
